--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/8/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/8/LocalizationDef.xlsx
@@ -187,7 +187,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Terrorist</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте террориста из {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте террориста из {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_BugHunt.objectiveList3.description</t>
@@ -235,7 +235,7 @@
     <t>Keep the {TEAM_TAR.FactionDef.Demonym} Terrorist from Escaping</t>
   </si>
   <si>
-    <t>Не дайте сбежать террористу из {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Не дайте сбежать террористу из {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_BugHunt.objectiveList6.description</t>
@@ -262,7 +262,7 @@
     <t>Commander, we need an immediate deployment. We've been in pursuit of a {TEAM_TAR.FactionDef.Demonym} terrorist for months, and we've finally tracked them to this planet. They've gone to ground but earlier today one of our orbital units spotted them moving on the surface. This is the first verified sighting we've had of the target, and we want you to bring them down immediately, before they're able to slip away again. There hasn't been time to do a full survey of the AO, so you'll be going in blind.</t>
   </si>
   <si>
-    <t>Командир, нам нужно немедленное развертывание. Мы несколько месяцев преследовали террориста из {TEAM_TAR.FactionDef.Demonym} и наконец выследили его до этой планеты. Его отряд залег на дно, но перед этим один из наших спутников заметил их движение по поверхности. Это первое подтверждённое наблюдение цели, которое мы получили, и мы хотим, чтобы вы немедленно уничтожили их, прежде чем они снова ускользнут. Не было времени на полное обследование зоны операции, так что придется идти вслепую.</t>
+    <t>Командир, нам нужно немедленное развертывание. Мы несколько месяцев преследовали террориста из {TEAM_TAR.FactionDef.Name} и наконец выследили его до этой планеты. Его отряд залег на дно, но перед этим один из наших спутников заметил их движение по поверхности. Это первое подтверждённое наблюдение цели, которое мы получили, и мы хотим, чтобы вы немедленно уничтожили их, прежде чем они снова ускользнут. Не было времени на полное обследование зоны операции, так что придется идти вслепую.</t>
   </si>
   <si>
     <t>Assassinate_BugHunt_Alt.contractName</t>
@@ -343,7 +343,7 @@
     <t>Assassinate_BugHunt_Alt.objectiveList2.title</t>
   </si>
   <si>
-    <t>Террорист из {TEAM_TAR.FactionDef.Demonym} должен быть уничтожен</t>
+    <t>Террорист из {TEAM_TAR.FactionDef.Name} должен быть уничтожен</t>
   </si>
   <si>
     <t>Assassinate_BugHunt_Alt.objectiveList3.description</t>
@@ -637,7 +637,7 @@
     <t>The {TEAM_TAR.FactionDef.Demonym} MechWarrior is headed to a major military compound on {TGT_SYSTEM.Name}, where they'll take command of a company-sized 'Mech force, and become untouchable. They're en route to the encampment, but until they arrive, they're vulnerable.</t>
   </si>
   <si>
-    <t>Мехвоин из {TEAM_TAR.FactionDef.Demonym} направляется в крупный военный комплекс на {TGT_SYSTEM.Name}, где он возьмёт на себя командование ротой мехов и станет неприкосновенным, и пока он туда идёт, он - уязвим!</t>
+    <t>Мехвоин из {TEAM_TAR.FactionDef.Name} направляется в крупный военный комплекс на {TGT_SYSTEM.Name}, где он возьмёт на себя командование ротой мехов и станет неприкосновенным, и пока он туда идёт, он - уязвим!</t>
   </si>
   <si>
     <t>Assassinate_HardTarget.objectiveList0.title</t>
@@ -646,7 +646,7 @@
     <t>Destroy Supporting {TEAM_TAR.FactionDef.Demonym} Forces</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте силы подержки, принадлежайщие {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте силы подержки, принадлежайщие {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_HardTarget.objectiveList1.title</t>
@@ -655,7 +655,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте подкрепления {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте подкрепления {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_HardTarget.objectiveList2.title</t>
@@ -664,7 +664,7 @@
     <t>Destroy Elite {TEAM_TAR.FactionDef.Demonym} MechWarrior</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте элитного мехвоина из {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте элитного мехвоина из {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_HardTarget.objectiveList3.description</t>
@@ -703,7 +703,7 @@
     <t>An elite MechWarrior has been deployed to take command of {TEAM_TAR.FactionDef.Demonym} forces in this system. We need a skilled mercenary force to remove this MechWarrior before they reach their command, while they're only lightly escorted. Every downed 'Mech will help our cause, so there will be a bonus for complete destruction of the target's supporting forces. Additionally, the MechWarrior's command may send out an escort unit to meet them; expect enemy reinforcements once you engage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Элитный мехвоин вызван для управления силами {TEAM_TAR.FactionDef.Demonym} в этой системе. Нам нужны опытные наемники, чтобы убрать его до того, как он доберётся до основных сил, пока его сопровождает лишь лёгкий эскорт. Каждый уничтоженный мех поможет нашему делу, поэтому мы заплатим премию за полное уничтожение всех отрядов. Кроме того, вражеское командование  может послать  дополнительные силы, ожидайте подкреплений.</t>
+    <t xml:space="preserve">Элитный мехвоин вызван для управления силами {TEAM_TAR.FactionDef.Name} в этой системе. Нам нужны опытные наемники, чтобы убрать его до того, как он доберётся до основных сил, пока его сопровождает лишь лёгкий эскорт. Каждый уничтоженный мех поможет нашему делу, поэтому мы заплатим премию за полное уничтожение всех отрядов. Кроме того, вражеское командование  может послать  дополнительные силы, ожидайте подкреплений.</t>
   </si>
   <si>
     <t>Assassinate_HeartOfDarkness.contractName</t>
@@ -796,7 +796,7 @@
     <t>Defeat {TEAM_TAR.FactionDef.Demonym} Forces</t>
   </si>
   <si>
-    <t>Разбейте силы {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Разбейте силы {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_HeartOfDarkness.objectiveList1.title</t>
@@ -805,7 +805,7 @@
     <t>Defeat {TEAM_TAR.FactionDef.Demonym} Reinforcements</t>
   </si>
   <si>
-    <t>Уничтожьте подкрепление {TEAM_TAR.FactionDef.Demonym}</t>
+    <t>Уничтожьте подкрепление {TEAM_TAR.FactionDef.Name}</t>
   </si>
   <si>
     <t>Assassinate_HeartOfDarkness.objectiveList2.title</t>
@@ -841,7 +841,7 @@
     <t>A former {TEAM_EMP.FactionDef.Demonym} commander, backed by {TEAM_TAR.FactionDef.Demonym} forces, has set up his own government. To avoid any unwanted personnel conflicts, and to save our people the stress of fighting their former comrades, {TEAM_EMP.FactionDef.Name} requires a Merc unit to remove this traitor and keep him from destroying his own people.</t>
   </si>
   <si>
-    <t>Бывший командир {TEAM_EMP.FactionDef.Demonym} при поддержке сил {TEAM_TAR.FactionDef.Demonym} сформировал собственное правительство. Чтобы избежать нежелательных личных конфликтов и избавить наш народ от стресса гражданской войны, {TEAM_EMP.FactionDef.Name} требуют, чтобы отряд наемников устранил этого предателя и не дал ему уничтожить свой народ.</t>
+    <t>Бывший командир {TEAM_EMP.FactionDef.Name} при поддержке сил {TEAM_TAR.FactionDef.Name} сформировал собственное правительство. Чтобы избежать нежелательных личных конфликтов и избавить наш народ от стресса гражданской войны, {TEAM_EMP.FactionDef.Name} требуют, чтобы отряд наемников устранил этого предателя и не дал ему уничтожить свой народ.</t>
   </si>
   <si>
     <t>Assassinate_InsurgentLeader_Hard.contractName</t>
@@ -949,7 +949,7 @@
     <t>Assassinate_InsurgentLeader_Hard.objectiveList1.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте подкрепление {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте подкрепление {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_InsurgentLeader_Hard.objectiveList2.title</t>
@@ -991,7 +991,7 @@
     <t>We've had confirmation from several sources that the leader of an insurgent cell backed by {TEAM_TAR.FactionDef.Name} is moving in the open. This is a rare opportunity to take out one of the primary enemies of the legitimate {TEAM_EMP.FactionDef.Demonym} regime in {TGT_SYSTEM.name}. Additionally, we'll include a bonus payment if you're able to destroy all of the target's escorting units.</t>
   </si>
   <si>
-    <t>Мы получили подтверждение из нескольких источников, что лидер повстанческой ячейки, поддерживаемый {TEAM_TAR.FactionDef.Name} движется в открытую. Это редкая возможность устранить одного из главных врагов легитимного режима {TEAM_EMP.FactionDef.Demonym} на {TGT_SYSTEM.name}. Кроме того, мы включим бонусную выплату, если вы сможете уничтожить эскорт.</t>
+    <t>Мы получили подтверждение из нескольких источников, что лидер повстанческой ячейки, поддерживаемый {TEAM_TAR.FactionDef.Name} движется в открытую. Это редкая возможность устранить одного из главных врагов легитимного режима {TEAM_EMP.FactionDef.Name} на {TGT_SYSTEM.name}. Кроме того, мы включим бонусную выплату, если вы сможете уничтожить эскорт.</t>
   </si>
   <si>
     <t>Assassinate_Pirate_CodeOfSilence_Hard.contractName</t>
@@ -1084,7 +1084,7 @@
     <t>Destroy {TEAM_TAR.FactionDef.Demonym} MechWarrior</t>
   </si>
   <si>
-    <t xml:space="preserve">Уничтожьте мехвоина из {TEAM_TAR.FactionDef.Demonym} </t>
+    <t xml:space="preserve">Уничтожьте мехвоина из {TEAM_TAR.FactionDef.Name} </t>
   </si>
   <si>
     <t>Assassinate_Pirate_CodeOfSilence_Hard.objectiveList3.description</t>
@@ -1120,7 +1120,7 @@
     <t>There's a {TEAM_TAR.FactionDef.Demonym} MechWarrior here on {TGT_SYSTEM.name}, involved in keeping the peace. He helped out with some of our operations, and in turn we kept him supplied with things he couldn't get on the open market, if you know what I mean. But he's started talking to the authorities, and making threats about exposing our business. We want you to put a stop to that. He's probably gonna try to make a break for it. Don't let him escape.</t>
   </si>
   <si>
-    <t xml:space="preserve">Здесь, на {TGT_SYSTEM.name}, есть мехвоин {TEAM_TAR.FactionDef.Demonym}, который участвует в поддержании мира. Он помогал в некоторых наших операциях, а за это, мы снабжали его вещами, которые он не мог получить на открытом рынке, если вы понимаете, о чем я. Но он начал разговаривать с властями и угрожать разоблачить наш бизнес. Мы хотим, чтобы вы положили этому конец. Он вероятно, попытается  этому помешать. Не дайте ему сбежать.</t>
+    <t xml:space="preserve">Здесь, на {TGT_SYSTEM.name}, есть мехвоин {TEAM_TAR.FactionDef.Name}, который участвует в поддержании мира. Он помогал в некоторых наших операциях, а за это, мы снабжали его вещами, которые он не мог получить на открытом рынке, если вы понимаете, о чем я. Но он начал разговаривать с властями и угрожать разоблачить наш бизнес. Мы хотим, чтобы вы положили этому конец. Он вероятно, попытается  этому помешать. Не дайте ему сбежать.</t>
   </si>
   <si>
     <t>Assassinate_Pirate_EyeForAnEye_Hard.contractName</t>
@@ -1237,7 +1237,7 @@
     <t>It's reached a point where we can no longer operate in {TGT_SYSTEM.name}, Commander, and it's all thanks to a particular {TEAM_TAR.FactionDef.Demonym} MechWarrior tasked with tracking down our activities in this region. We're tired of letting him pick the time and place of battle, so we'd like you to give him a little surprise visit while he's on patrol. He'll be defended and given his paranoia he'll probably have backup waiting nearby, so watch for an ambush.</t>
   </si>
   <si>
-    <t>Дело дошло до того, что мы больше не можем работать на {TGT_SYSTEM.name}, командир, и все это благодаря конкретному мехвоину из {TEAM_TAR.FactionDef.Demonym} , которому поручено отслеживать нашу деятельность в этом регионе. Нам надоело, что он постоянно выбирает время и место атаки, поэтому мы хотели бы, чтобы вы нанесли ему неожиданный визит, пока он находится в патруле. Он будет защищён, и учитывая его паранойю, у него, вероятно, будет поддержка, ожидающя поблизости. Остерегайтесь засад.</t>
+    <t>Дело дошло до того, что мы больше не можем работать на {TGT_SYSTEM.name}, командир, и все это благодаря конкретному мехвоину из {TEAM_TAR.FactionDef.Name} , которому поручено отслеживать нашу деятельность в этом регионе. Нам надоело, что он постоянно выбирает время и место атаки, поэтому мы хотели бы, чтобы вы нанесли ему неожиданный визит, пока он находится в патруле. Он будет защищён, и учитывая его паранойю, у него, вероятно, будет поддержка, ожидающя поблизости. Остерегайтесь засад.</t>
   </si>
   <si>
     <t>Assassinate_Renegade_Hard.contractName</t>
@@ -1396,7 +1396,7 @@
     <t>One of our covert facilities was breached, Commander, in what appears to have been an inside job. A MechWarrior stationed there murdered the rest of the staff and is defecting to {TEAM_TAR.FactionDef.Name}, taking a valuable {TEAM_EMP.FactionDef.Demonym} 'Mech with her. The facility is a total loss, but we don't want that 'Mech falling into enemy hands. Track down the renegade and destroy her 'Mech. We believe she's being escorted by {TEAM_TAR.FactionDef.Demonym} forces, and there's a bonus if you destroy them as well.</t>
   </si>
   <si>
-    <t xml:space="preserve">Командир, один из наших секретных объектов был взломан, и сделано это было изнутри. Находившийся там мехвоин убил остальных сотрудников и перешёл на сторону {TEAM_TAR.FactionDef.Name}, забрав с собой ценный мех {TEAM_EMP.FactionDef.Demonym}. Объект полностью  потерян, но мы не хотим, чтобы этот мех попал в руки врага. Выследите предателя и уничтожьте его мех. Мы считаем, что его сопровождают силы {TEAM_TAR.FactionDef.Demonym}, и если вы их уничтожите, мы доплатим.</t>
+    <t xml:space="preserve">Командир, один из наших секретных объектов был взломан, и сделано это было изнутри. Находившийся там мехвоин убил остальных сотрудников и перешёл на сторону {TEAM_TAR.FactionDef.Name}, забрав с собой ценный мех {TEAM_EMP.FactionDef.Name}. Объект полностью  потерян, но мы не хотим, чтобы этот мех попал в руки врага. Выследите предателя и уничтожьте его мех. Мы считаем, что его сопровождают силы {TEAM_TAR.FactionDef.Name}, и если вы их уничтожите, мы доплатим.</t>
   </si>
   <si>
     <t>Assassinate_WarMachine.contractName</t>
@@ -1543,7 +1543,7 @@
     <t>We periodically survey 'empty' worlds just to be certain there's no unexpected activity on them. This time, we got lucky. A {TEAM_EMP.FactionDef.Demonym} surveillance team picked up {TEAM_TAR.FactionDef.Demonym} signals from the surface of {TGT_SYSTEM.Name} that correspond to a very heavy 'Mech running through a test-fire sequence. We suspect the enemy is taking the 'Mech out for proving trials, figuring the planet is uninhabited. If we can locate and intercept this 'Mech, we can keep a powerful piece of hardware out of enemy hands.</t>
   </si>
   <si>
-    <t>Мы периодически обследуем «пустые» миры, чтобы убедиться, что в них нет неожиданной активности. На этот раз нам повезло. Группа наблюдения из {TEAM_EMP.FactionDef.Demonym} зафиксировала сигналы от {TEAM_TAR.FactionDef.Demonym} с поверхности {TGT_SYSTEM.Name}, которые соответствуют очень тяжелому меху, запустившему проверку вооружения. Мы подозреваем, что враг выводит меха на испытания, считая планету необитаемой. Если мы сможем определить местонахождение этого меха, мы сможем вырвать мощное оборудование из рук врага.</t>
+    <t>Мы периодически обследуем «пустые» миры, чтобы убедиться, что в них нет неожиданной активности. На этот раз нам повезло. Группа наблюдения из {TEAM_EMP.FactionDef.Name} зафиксировала сигналы от {TEAM_TAR.FactionDef.Name} с поверхности {TGT_SYSTEM.Name}, которые соответствуют очень тяжелому меху, запустившему проверку вооружения. Мы подозреваем, что враг выводит меха на испытания, считая планету необитаемой. Если мы сможем определить местонахождение этого меха, мы сможем вырвать мощное оборудование из рук врага.</t>
   </si>
 </sst>
 </file>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2150,7 +2150,7 @@
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2234,7 +2234,7 @@
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2276,7 +2276,7 @@
       <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2542,7 +2542,7 @@
       <c r="B47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2626,7 +2626,7 @@
       <c r="B53" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -2668,7 +2668,7 @@
       <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3270,7 +3270,7 @@
       <c r="B99" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>207</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -3284,7 +3284,7 @@
       <c r="B100" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="5" t="s">
         <v>210</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -3298,7 +3298,7 @@
       <c r="B101" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>213</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -3312,7 +3312,7 @@
       <c r="B102" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="5" t="s">
         <v>216</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -3410,7 +3410,7 @@
       <c r="B109" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="5" t="s">
         <v>229</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -3592,7 +3592,7 @@
       <c r="B122" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>260</v>
       </c>
       <c r="D122" s="2" t="s">
@@ -3606,7 +3606,7 @@
       <c r="B123" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>263</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -3718,7 +3718,7 @@
       <c r="B131" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C131" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -3928,7 +3928,7 @@
       <c r="B146" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="5" t="s">
         <v>311</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -4040,7 +4040,7 @@
       <c r="B154" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="5" t="s">
         <v>325</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -4292,7 +4292,7 @@
       <c r="B172" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="5" t="s">
         <v>356</v>
       </c>
       <c r="D172" s="2" t="s">
@@ -4418,7 +4418,7 @@
       <c r="B181" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="5" t="s">
         <v>368</v>
       </c>
       <c r="D181" s="2" t="s">
@@ -4670,7 +4670,7 @@
       <c r="B199" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="5" t="s">
         <v>356</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -4796,7 +4796,7 @@
       <c r="B208" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C208" s="4" t="s">
+      <c r="C208" s="5" t="s">
         <v>407</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -5174,7 +5174,7 @@
       <c r="B235" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="5" t="s">
         <v>460</v>
       </c>
       <c r="D235" s="2" t="s">
@@ -5552,7 +5552,7 @@
       <c r="B262" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="5" t="s">
         <v>509</v>
       </c>
       <c r="D262" s="2" t="s">

--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/8/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/assassinate/8/LocalizationDef.xlsx
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
